--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Desktop\Fallstudie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77E021-8F8A-4AFD-8EBC-47D81867F74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4EDDB-3079-45E4-9EDB-5FB2658295E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,15 +78,6 @@
     <t>Infos</t>
   </si>
   <si>
-    <t xml:space="preserve">     Maven 
-     Registrung neuer User /Rechteverwaltung
-Benutergruppen = Berechtigungen
-Kommentar in Code !!! 
-Java (Html,css,SQL),Js
- - IdoIT tool anschauen! https://www.i-doit.com/i-doit/
-        https://www.i-doit.com/support/starter-guide/</t>
-  </si>
-  <si>
     <t>Funktinalität</t>
   </si>
   <si>
@@ -163,6 +154,20 @@
   </si>
   <si>
     <t>Protokoll Fallstudie  zero 1 one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Maven 
+     Registrung neuer User /Rechteverwaltung
+Benutergruppen = Berechtigungen
+Kommentar in Code !!! 
+Java (Html,css,SQL),Js
+ - IdoIT tool anschauen! https://www.i-doit.com/i-doit/
+        https://www.i-doit.com/support/starter-guide/
+ -Maven 
+https://draeger-it.blog/maven-einrichten-von-apache-maven/?cn-reloaded=1
+Maven: Einrichten von Apache Maven
+In diesem Tutorial möchte kurz erläutern wie man Apache Maven einrichtet. Dieses Tutorial wird benötigt da ich in anderen Tutorials für die Entwicklung Apac
+</t>
   </si>
 </sst>
 </file>
@@ -621,7 +626,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -682,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6">
         <v>44088</v>
@@ -703,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6">
         <v>44088</v>
@@ -716,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -724,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6">
         <v>44088</v>
@@ -742,10 +747,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6">
         <v>44088</v>
@@ -763,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6">
         <v>44088</v>
@@ -784,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="6">
         <v>44088</v>
@@ -805,10 +810,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="6">
         <v>44088</v>
@@ -1018,13 +1023,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,7 +1040,7 @@
         <v>44088</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,7 +1051,7 @@
         <v>44088</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,21 +1072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1195,10 +1185,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1219,17 +1232,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4EDDB-3079-45E4-9EDB-5FB2658295E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81AED6-C038-4BF5-BFCF-ACD566292B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15510" yWindow="0" windowWidth="12315" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Details " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>Projektprotokoll</t>
-  </si>
-  <si>
-    <t>Umfang: 2,5 ECTS-LP entspricht ca. 5 Textseiten (ohne Abbildungen, Tabellen, Verzeichnisse,
-Anhänge, …) * Anzahl der Gruppenmitglieder = ca. 45 Textseiten (bei 9 Gruppenmitgliedern)</t>
   </si>
   <si>
     <t xml:space="preserve">  - Donnerstag nach der Uni 10-20 min </t>
@@ -168,6 +164,23 @@
 Maven: Einrichten von Apache Maven
 In diesem Tutorial möchte kurz erläutern wie man Apache Maven einrichtet. Dieses Tutorial wird benötigt da ich in anderen Tutorials für die Entwicklung Apac
 </t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Ginna,Laura,Daniel</t>
+  </si>
+  <si>
+    <t>Johanna, Pascal,Til,Dimi,Max</t>
+  </si>
+  <si>
+    <t>Umfang: 2,5 ECTS-LP entspricht ca. 5 Textseiten (ohne Abbildungen, Tabellen, Verzeichnisse,
+Anhänge, …) * Anzahl der Gruppenmitglieder = ca. 45 Textseiten (bei 9 Gruppenmitgliedern)
+Marcel mit Unterstützung aller</t>
   </si>
 </sst>
 </file>
@@ -625,8 +638,8 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -708,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6">
         <v>44088</v>
@@ -729,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6">
         <v>44088</v>
@@ -805,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -813,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6">
         <v>44088</v>
@@ -828,21 +841,41 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44088</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44088</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1023,13 +1056,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1073,7 @@
         <v>44088</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1084,7 @@
         <v>44088</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,6 +1105,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1185,33 +1233,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1232,9 +1257,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81AED6-C038-4BF5-BFCF-ACD566292B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD15F5-7ACE-47D7-9EC7-DCA2B9C63745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="0" windowWidth="12315" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Details " sheetId="1" r:id="rId1"/>
@@ -104,28 +104,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Benutzername und Passwort abfragen
-    - Zugang nach erfolgreicher Authentifizierung
-    -Berechtigungen in der Software entsprechend des Benutzers 
-    -Beenden der Sitzung durch Logout (Tab,Browser und Logoutbotten
-</t>
-  </si>
-  <si>
     <t>Funktinalität Login</t>
   </si>
   <si>
     <t>Funktinalität Benutzer/ Rechteverwaltung</t>
-  </si>
-  <si>
-    <t>Benutzer anlegen:
-  – Benutzernamen und initiales Passwort vergeben
-  – Rechte vergeben
-     Benutzer löschen
-     Benutzer verwalten
- – Rechte ändern 
- – Ggf. Benutzernamen, Passwort… ändern
-       Welche Benutzergruppen bestehen?
-    Welcher Benutzergruppen haben welche Berechtigungen?</t>
   </si>
   <si>
     <t>Projektprotokoll</t>
@@ -172,15 +154,41 @@
     <t>Backend</t>
   </si>
   <si>
-    <t>Ginna,Laura,Daniel</t>
-  </si>
-  <si>
-    <t>Johanna, Pascal,Til,Dimi,Max</t>
-  </si>
-  <si>
-    <t>Umfang: 2,5 ECTS-LP entspricht ca. 5 Textseiten (ohne Abbildungen, Tabellen, Verzeichnisse,
+    <t xml:space="preserve"> Benutzername und Passwort abfragen
+    - Zugang nach erfolgreicher Authentifizierung
+    -Berechtigungen in der Software entsprechend des Benutzers 
+    -Beenden der Sitzung durch Logout (Tab,Browser und Logoutbotten
+   - reChaptcher
+</t>
+  </si>
+  <si>
+    <t>Benutzer anlegen:
+  – Benutzernamen und initiales Passwort vergeben
+  – Rechte vergeben
+     Benutzer löschen
+     Benutzer verwalten
+ – Rechte ändern 
+ – Ggf. Benutzernamen, Passwort… ändern
+       Welche Benutzergruppen bestehen?
+    Welcher Benutzergruppen haben welche Berechtigungen?
+- als .exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johanna, Pascal,Til,Dimi,Max
+- Termin wird mit Pascal , Max Johana  nach Uni  stattfinden 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umfang: 2,5 ECTS-LP entspricht ca. 5 Textseiten (ohne Abbildungen, Tabellen, Verzeichnisse,
 Anhänge, …) * Anzahl der Gruppenmitglieder = ca. 45 Textseiten (bei 9 Gruppenmitgliedern)
-Marcel mit Unterstützung aller</t>
+Marcel mit Unterstützung aller
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginna,Laura,Daniel,Marcel
+ - Vorteile zwischen HTML und Java Gui  auf Erfahrung
+- Termin für Frontend Montag 21.09.2020 
+</t>
   </si>
 </sst>
 </file>
@@ -304,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,6 +345,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -639,7 +650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -666,7 +677,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9">
-        <v>44088</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -693,7 +704,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -714,14 +725,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>44088</v>
@@ -735,14 +746,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>44088</v>
@@ -756,7 +767,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -776,15 +787,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <v>44088</v>
@@ -797,18 +808,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6">
-        <v>44088</v>
+        <v>44091</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -818,15 +829,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6">
         <v>44088</v>
@@ -839,16 +850,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6">
-        <v>44088</v>
+        <v>44091</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -858,16 +871,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6">
-        <v>44088</v>
+        <v>44091</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -1056,13 +1071,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,7 +1088,7 @@
         <v>44088</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,7 +1099,7 @@
         <v>44088</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,21 +1120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1233,10 +1233,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1257,17 +1280,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD15F5-7ACE-47D7-9EC7-DCA2B9C63745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5542C6-64A7-43CB-B8D9-99928BE2EA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1120,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1233,33 +1248,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1280,9 +1272,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5542C6-64A7-43CB-B8D9-99928BE2EA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3CCC2-3FD0-44BD-8A7D-46DC786D2A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -189,6 +189,13 @@
  - Vorteile zwischen HTML und Java Gui  auf Erfahrung
 - Termin für Frontend Montag 21.09.2020 
 </t>
+  </si>
+  <si>
+    <t>GI,LA,DR,MC</t>
+  </si>
+  <si>
+    <t>JOH,PCJ,TIL,
+DIMI,MAX</t>
   </si>
 </sst>
 </file>
@@ -649,8 +656,8 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +875,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -888,8 +895,8 @@
         <v>7</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1120,21 +1127,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1248,10 +1240,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1272,17 +1287,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3CCC2-3FD0-44BD-8A7D-46DC786D2A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0A73F-98F1-496B-BAB6-30048DD1AFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,17 +185,20 @@
 </t>
   </si>
   <si>
+    <t>GI,LA,DR,MC</t>
+  </si>
+  <si>
+    <t>JOH,PCJ,TIL,
+DIMI,MAX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ginna,Laura,Daniel,Marcel
  - Vorteile zwischen HTML und Java Gui  auf Erfahrung
 - Termin für Frontend Montag 21.09.2020 
+- https://www.youtube.com/watch?v=F7krXl5pwNA&amp;t=1s&amp;ab_channel=CodingMarket
+- https://www.youtube.com/watch?v=URf1YcifgTU&amp;ab_channel=CodingMarket
+ Seiten :  Profil ; CI-Typen; CI-Record 
 </t>
-  </si>
-  <si>
-    <t>GI,LA,DR,MC</t>
-  </si>
-  <si>
-    <t>JOH,PCJ,TIL,
-DIMI,MAX</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -865,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6">
         <v>44091</v>
@@ -875,7 +878,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -896,7 +899,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,6 +1130,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1240,33 +1258,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1287,9 +1282,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0A73F-98F1-496B-BAB6-30048DD1AFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27C136-3DE1-4264-B68D-C28806D4B1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="6">
-        <v>44088</v>
+        <v>44098</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
@@ -829,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="6">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="6">
-        <v>44088</v>
+        <v>44098</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -871,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="6">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -892,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="6">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -1130,21 +1130,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1258,10 +1243,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1282,17 +1290,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreim\Git\zero1one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27C136-3DE1-4264-B68D-C28806D4B1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAA300-B076-4E3A-AEC1-262ADC5634A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1130,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1971A0B5C609B4AADBB87F7A9AC2B43" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2845366aab18a6db5ff4ac0a5e2925fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1243,33 +1258,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1290,9 +1282,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF03183-3898-4C72-A4AA-5B7883107B56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1773DF2-1D83-4C9F-B4DF-BF076FDEDE78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>